--- a/biology/Botanique/Holland_Park/Holland_Park.xlsx
+++ b/biology/Botanique/Holland_Park/Holland_Park.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Holland Park désigne un parc public mais aussi une rue et un quartier de Londres, lui-même situé dans le quartier plus vaste de Kensington.
@@ -512,7 +524,9 @@
           <t>Situation et accès</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L’ensemble est situé dans le district de Kensington et Chelsea.
 Le site est desservi au nord par la ligne  Central à la station Holland Park et, au sud-est, par les lignes  Circle  à la station High Street Kensington.
@@ -544,9 +558,11 @@
           <t>Origine du nom</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom du quartier évoque la mémoire des comtes de Holland, dans le Lincolnshire, propriétaires des terres à partir du XVIIe siècle[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom du quartier évoque la mémoire des comtes de Holland, dans le Lincolnshire, propriétaires des terres à partir du XVIIe siècle.
 </t>
         </is>
       </c>
@@ -575,10 +591,12 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La zone est longtemps rurale. Les jardins de Holland House, un manoir de type jacobéen construit en 1605, en occupent alors la majeure partie. À la fin du XIXe siècle, les propriétaires du manoir vendent les parties périphériques du jardin, qui sont peu à peu loties. Toute la zone prend alors le nom de la maison. 
-De nombreux artistes de renom vivent ici, à la fin du XIXe siècle, formant le Holland Park Circle (en)[2].
+De nombreux artistes de renom vivent ici, à la fin du XIXe siècle, formant le Holland Park Circle (en).
 L’océanographe William Speirs Bruce (1867-1921) grandit dans le quartier.
 Holland House est partiellement détruite par des bombes incendiaires le 27 septembre 1940, durant le Blitz. Sa bibliothèques est miraculeusement préservée.
 </t>
@@ -609,7 +627,9 @@
           <t>Holland Park, le parc</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Une partie substantielle des jardins a été préservée par le Conseil local. L’actuel parc s’étend sur environ 22 hectares. On y trouve une orangerie, un terrain de cricket, des courts de tennis, un jardin japonais, une auberge de  jeunesse et un des terrains de jeu les mieux équipés de Londres. On y trouve également des écureuils et, chose étonnante dans un parc londonien, des paons.
 </t>
